--- a/giansalex/evidence.xlsx
+++ b/giansalex/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -97,34 +97,52 @@
     <t xml:space="preserve">ClassID</t>
   </si>
   <si>
-    <t xml:space="preserve">tx hash on irisnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class id you issued</t>
+    <t xml:space="preserve">48DFB7131C81C51F68AB272A76CE9F719E1F1D40223521DF3FA979D9A621CE16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disperze01</t>
   </si>
   <si>
     <t xml:space="preserve">NFTID</t>
   </si>
   <si>
-    <t xml:space="preserve">nft id you minted</t>
+    <t xml:space="preserve">EF518A526294443C1E69A1C0824B102BD04A61E0CA1E274AC6A7934194033FAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gonft001</t>
   </si>
   <si>
     <t xml:space="preserve">ChainID</t>
   </si>
   <si>
-    <t xml:space="preserve">ibc class on dest chain</t>
+    <t xml:space="preserve">BDF8620D61C53F47158E6D9DEB9C00EF68BDE52FC963C8D3AC21615D696279C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juno19gumnz9f2we022mkauae3v29jkyf0e5mqwy8ex8p9klav7ntwxfq8wjrcv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uni-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC6A13793DD3762C11522E658946FC57C28DD45E53A6B44E4969ACDA4369EAC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/7A2A1E0D341C654C86538C4D3129DEF3DEBD8CF3F4DE239DDDC2DC21361402D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptick_7000-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">516CD98BABEEBACCC6793D4F325F06EBC033269D61B2D3D98A4B6EB431BB0172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0A983C0378B0969F9EE4E314E8274AB8015BFE38561EF24720871EB3BD475B74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc class on chain</t>
   </si>
   <si>
     <t xml:space="preserve">nft id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dest chain id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx hash on dest chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibc class on chain</t>
   </si>
   <si>
     <t xml:space="preserve">tx hash on that chain</t>
@@ -341,16 +359,16 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="16.81"/>
@@ -427,7 +445,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -442,10 +460,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +488,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -485,10 +503,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +531,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -528,10 +546,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +574,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -571,10 +589,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +617,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -609,25 +627,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +670,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -662,25 +680,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +723,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -715,25 +733,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +776,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -768,25 +786,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +829,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -821,25 +839,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +882,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -874,25 +892,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -914,53 +932,53 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -970,25 +988,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1031,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1023,25 +1041,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1084,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1075,12 +1093,12 @@
     </row>
     <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1123,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1114,12 +1132,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1162,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1153,12 +1171,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1201,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1192,12 +1210,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1219,10 +1237,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1241,13 +1259,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1269,10 +1287,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1289,21 +1307,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1325,10 +1343,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1345,21 +1363,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1381,10 +1399,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1401,22 +1419,22 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1436,16 +1454,16 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,21 +1477,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1516,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1513,10 +1531,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1559,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1556,10 +1574,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/giansalex/evidence.xlsx
+++ b/giansalex/evidence.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -112,6 +112,12 @@
     <t xml:space="preserve">gonft001</t>
   </si>
   <si>
+    <t xml:space="preserve">DF005D79B7BCBEBB631995C17003978EB2BF97F02FBFAA801FA67BD5B1551B60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gonft002</t>
+  </si>
+  <si>
     <t xml:space="preserve">ChainID</t>
   </si>
   <si>
@@ -124,7 +130,7 @@
     <t xml:space="preserve">uni-6</t>
   </si>
   <si>
-    <t xml:space="preserve">BC6A13793DD3762C11522E658946FC57C28DD45E53A6B44E4969ACDA4369EAC0</t>
+    <t xml:space="preserve">6B38A1EF4B03194400087B86B40A1D64595789406033B6AE245C40FBF52B05A2</t>
   </si>
   <si>
     <t xml:space="preserve">ibc/7A2A1E0D341C654C86538C4D3129DEF3DEBD8CF3F4DE239DDDC2DC21361402D6</t>
@@ -136,7 +142,7 @@
     <t xml:space="preserve">516CD98BABEEBACCC6793D4F325F06EBC033269D61B2D3D98A4B6EB431BB0172</t>
   </si>
   <si>
-    <t xml:space="preserve">0A983C0378B0969F9EE4E314E8274AB8015BFE38561EF24720871EB3BD475B74</t>
+    <t xml:space="preserve">56113241153E17BC9E15847C24891B4508F38B52199CC7AED67D05613F3A92DD</t>
   </si>
   <si>
     <t xml:space="preserve">ibc class on chain</t>
@@ -167,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -196,6 +202,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -259,7 +271,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,6 +289,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,10 +379,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.7"/>
@@ -445,7 +461,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -460,10 +476,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +504,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -503,10 +519,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +547,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -546,10 +562,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +590,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -589,10 +605,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +633,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -627,472 +643,14 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1101,37 +659,51 @@
         <v>37</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1140,37 +712,51 @@
         <v>37</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1179,37 +765,51 @@
         <v>37</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1218,6 +818,305 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1229,18 +1128,135 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1268,6 +1284,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1290,7 +1317,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1307,21 +1334,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1370,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1363,102 +1390,102 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1477,22 +1504,22 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1516,7 +1543,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1531,10 +1558,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1586,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1574,10 +1601,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/giansalex/evidence.xlsx
+++ b/giansalex/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -145,19 +145,157 @@
     <t xml:space="preserve">56113241153E17BC9E15847C24891B4508F38B52199CC7AED67D05613F3A92DD</t>
   </si>
   <si>
-    <t xml:space="preserve">ibc class on chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nft id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx hash on that chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chain id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx hash on that chain	chain id</t>
+    <t xml:space="preserve">ibc/143CDA22915097F9786B0AD3A01B03FDB9258B62F6CF44A05C43FF8D21DE515A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowa1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/8AD9A8A362B50D798F90D9BBA3983DCE47CE07CA10CC69D90F1B25BB37BA3A2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowa2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/46D8543334EDF50374972B4F2B3D36F37832AE6F039BDA8E74EB6FCD7A2468C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowa3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/7FA623716F1F1D575BD0528F53F8B602B6B41E912044368626B7D9B39FDBDA57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowa4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/617038F566E56733C84BE3F8CF0F5D4F72D5C010BE233CE7DA85AF5CA80DE38A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowa5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/9A59FA674EA0B65DAE3E207518524F30E1DF57C18F0654228589FD11AFAFB966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowa6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B31D49D432908B2A2BB4D1C0DB4C33ACED800278E94EB47F78A52DAA7527C2DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gon-irishub-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA6F9786E911059F7A3CE9561F6E8F33826931D1AD4D3C671B66F38FF157BB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elgafar-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">706B0CA8E2DD6B7C5BF4C04FD0BB614A8DA8FC615DFACF93107DE6DC31A9D82D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BF703B7114A679262D231425B86FC0B8C92AFA8A20FE26E0754A30097774E30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABB64F02820DE206860D0812B3D9BE09329A36F52BC961232F95D9C5FE479D7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710F29C45575CC2F93733F5F58535036C7AC4C08C4EC92C5532960D9280F8A25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC6099EA91BE17D703971B1BFBE4C0609E8B1C04C00816A9BF1C087498F4BEAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gon-flixnet-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11AA19DE55FF886C705535D076A6F70D7F4077452FA81F3881B12511B1F4D93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4FA12C8CF30A6E5BB4FFE606D7DD8222EC1896EAC73942CD0BF52D3746F0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160807D8AEAB08ADF0413C103D57FC13FCF6A0603CF44A659D47CB8311FA7D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13C0DA1244008717F122C5252CB5C906E9698CB8204708465CC779254103BF5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D0E0A2325BF476D15E16105610C6EF2756DD5C5068C1950E5A5430DDFBB1504B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDE2C1B56176A0414742F64D15C2A3959D288A54812D4A292721C5CFA1D69842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E845E11E81EA2138ADD14A4B08624C71F804CD6BC49BD9B7B02195E0B48E7983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F5F2E1D1E63AADF795402938C1989ED0D9FEA21776F36309FE79AC95E1521877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2B6681008D01202A1B405B10B7C4F4343674BCBEB59284F216CC02FBCE461C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2DDE4B23686FC33A6ED07D6743733DE1B6B0A3B884C6FBC9F3102760317686BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B55DE5EC6D81D50751D22F194DF52D9BA2A4ADCF59BD0939D616F0741107B507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B39587A5E0F8FA281E30C02FCD23E1558D078817873516929940C6D3E0A9A0D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69942492C2445ECCFEC267E7D3B2B1C6DC733454D2C49B90348AF8DB1A79D2AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC7676EAA23759904F99B6CE72BB4501C2635D41234D4B273FEB5D5AEE0C8A8D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4D21516DE7D50B9DB9644A7482AAB2CD99BAA2D411501F173286F47FF02B2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5B0A73674299EE082693C7A2E3FF7F4FFE3125A0E7DB0ACC2A65050A455466F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F7A6A81618BF5D32C2F64111F98B55AE3118F5AEE1C928A4F2114A8C092FA89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300DC6FDFF6EF3DACF5FD6588C6AEDC8399AF5411A835CFB1A97C457B6E5FE5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">496CF179A0BC5BBE0CB87BC245BB0C51568C6468C7852C3D988C9018732F7993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD5654CD0CA404B9A9028A5A1A710C653F604FC6E1FE7F74E0A847CF98BA4D51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCCF8138812B4665627849BF3C0436BF16B955912069CA096CFBCF29D66615C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22757E4996200A9F851B1C792BD3A3EAE6E47A0A3406DB9C40E46A7B92933113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B19021198F571B7AA0BE69E722DD4D0CA387FC63A5DF8854E97C497B5798929B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4DF31D65ED1AA600466B40EABE0022C765A812F387887A7CDB6D357720545DFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBD30C67A0C647D173C4955ECFB49A28016DF5D076D26FBF22CC8592E860EB24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0D32A33B02DE89060F4F95914AA6C887D1AAD788CC8EF0975DEAE0F2DAFD5300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6E8E14438D09D456ECED3640B9FC99C7EB76EA7C369A143E4A06C77815DB8162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0B29456DB7684203D6D5A99F5252A314440D958B12DA6506F994371F69C66E39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6F304733FD3039F751A2425C495F0D9DBC15FE4A7AD611EBB82FB570CA52306B</t>
   </si>
   <si>
     <t xml:space="preserve">The first Interchain NFT-Transfer TxHash</t>
@@ -379,7 +517,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.06"/>
@@ -458,10 +596,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -476,10 +614,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -501,10 +639,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -519,10 +657,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -544,10 +682,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -562,10 +700,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -587,10 +725,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -605,10 +743,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -627,13 +765,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -648,20 +786,34 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -680,13 +832,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -701,20 +853,34 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -733,13 +899,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -754,20 +920,34 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -786,13 +966,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -807,20 +987,34 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -839,13 +1033,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -860,20 +1054,34 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -892,13 +1100,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -913,22 +1121,38 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
+        <v>70</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -951,7 +1175,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
   </cols>
@@ -988,13 +1212,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1009,20 +1233,50 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1041,13 +1295,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1062,20 +1316,50 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>79</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>80</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1384,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1109,12 +1393,12 @@
     </row>
     <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1423,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1148,12 +1432,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1462,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1187,12 +1471,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1501,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1226,12 +1510,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1540,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1288,7 +1572,7 @@
       <c r="A3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1317,7 +1601,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1373,7 +1657,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1429,7 +1713,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1481,11 +1765,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1540,10 +1824,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1583,10 +1867,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1601,10 +1885,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/giansalex/evidence.xlsx
+++ b/giansalex/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -160,7 +160,7 @@
     <t xml:space="preserve">ibc/46D8543334EDF50374972B4F2B3D36F37832AE6F039BDA8E74EB6FCD7A2468C4</t>
   </si>
   <si>
-    <t xml:space="preserve">flowa3</t>
+    <t xml:space="preserve">flowa03</t>
   </si>
   <si>
     <t xml:space="preserve">ibc/7FA623716F1F1D575BD0528F53F8B602B6B41E912044368626B7D9B39FDBDA57</t>
@@ -311,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -340,12 +340,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -409,7 +403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,10 +421,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,7 +507,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.06"/>
@@ -595,11 +585,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -642,7 +632,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -685,7 +675,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -728,7 +718,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -771,7 +761,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -838,7 +828,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -855,7 +845,7 @@
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -905,7 +895,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -922,7 +912,7 @@
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -972,7 +962,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -989,7 +979,7 @@
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1039,7 +1029,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1056,7 +1046,7 @@
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1106,7 +1096,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1123,7 +1113,7 @@
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1175,7 +1165,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
   </cols>
@@ -1218,7 +1208,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1235,7 +1225,7 @@
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1297,11 +1287,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1318,7 +1308,7 @@
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1384,7 +1374,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1392,7 +1382,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1423,7 +1413,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1431,7 +1421,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1462,7 +1452,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1470,7 +1460,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1501,7 +1491,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1509,7 +1499,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1540,7 +1530,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1601,7 +1591,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1657,7 +1647,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1713,7 +1703,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1769,7 +1759,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1827,7 +1817,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1870,7 +1860,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>

--- a/giansalex/evidence.xlsx
+++ b/giansalex/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,7 @@
     <sheet name="B2" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="B5" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="B6" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="B7" sheetId="26" state="visible" r:id="rId27"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -298,10 +299,34 @@
     <t xml:space="preserve">6F304733FD3039F751A2425C495F0D9DBC15FE4A7AD611EBB82FB570CA52306B</t>
   </si>
   <si>
-    <t xml:space="preserve">The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Internal Transfer TxHash on IRISnet</t>
+    <t xml:space="preserve">6D6D0B6870492CDECED3905E2AA02CC1EBEF8D29860165E26025589E3EC408D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1F529B466285220982C5C8E638F125B9F78A8198D216DB1C047CE0DEA1E2289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E07543BC4C4D5E92C92DFBB89385942517B52369A51F245DA9E1E38F54FF8073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4D00E13A43CB5D430E8DD337B010347EB4CD1D5F3653A15B982213DEA4960DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED6D9C49E5BCF2ADA831B912715DADADD05D20D70CBD4EEE11307EEDF64DEB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5EED4CD2A3A7DC434A76E712BA20677AFF66AE7116B25AB3DB06542B65CFBF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3856D232AC57D97B9F0309E697221693C9D42E8AF6B863413798CCA37C391D82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41CD6413BFD72FA474AF777BB44DDD095AF1D7572D008F0AEAA4365825F93219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455408576FF048CF374A4AE15CFB0DB3F56068F6815290F1581C28ED93E86474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72E868321FB5402DC5CB292365D334AC2C9557474AEA1DBCBFF810FDD5EDBB7C</t>
   </si>
 </sst>
 </file>
@@ -507,7 +532,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.06"/>
@@ -585,11 +610,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -632,7 +657,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -675,7 +700,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -718,7 +743,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -761,7 +786,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -828,7 +853,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -895,7 +920,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -962,7 +987,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1029,7 +1054,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1096,7 +1121,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1165,7 +1190,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
   </cols>
@@ -1208,7 +1233,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1291,7 +1316,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1370,11 +1395,11 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1410,10 +1435,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1422,12 +1447,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1474,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1461,12 +1486,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1488,10 +1513,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1500,12 +1525,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1519,6 +1544,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1530,7 +1594,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1591,7 +1655,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1647,7 +1711,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1703,7 +1767,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1759,7 +1823,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1817,7 +1881,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1860,7 +1924,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
